--- a/策划文档/版本进度/demo版本优化需求.xlsx
+++ b/策划文档/版本进度/demo版本优化需求.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>内容</t>
   </si>
@@ -89,6 +89,39 @@
   </si>
   <si>
     <t>技能界面图标整体下移，不要挡住左上角技能文字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消所有的受击转向</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖国标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出二级界面的介绍视频</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晓洋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化格挡动作的反馈，增加格挡成功震屏（怪物格挡成功也会震屏）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化反馈弹反的动作，增加专门的弹反动作源文件
+格挡成功会产生屏幕震动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像机跟随速度调整，现在快速移动感觉屏幕跟随过快</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮点击效果修改为每次新的点击都会立即替代前次点击，而不是等到第二次点击完成再开始下次点击效果</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -711,8 +744,8 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -918,8 +951,12 @@
       <c r="P8" s="29"/>
     </row>
     <row r="9" spans="1:16" ht="90.75" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" s="12"/>
       <c r="D9" s="15"/>
       <c r="E9" s="17"/>
@@ -936,8 +973,12 @@
       <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:16" ht="88.5" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="C10" s="12"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -954,9 +995,15 @@
       <c r="P10" s="29"/>
     </row>
     <row r="11" spans="1:16" ht="98.25" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="15"/>
@@ -972,8 +1019,12 @@
       <c r="P11" s="29"/>
     </row>
     <row r="12" spans="1:16" ht="79.5" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="C12" s="12"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -990,8 +1041,12 @@
       <c r="P12" s="29"/>
     </row>
     <row r="13" spans="1:16" ht="79.5" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="C13" s="12"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>

--- a/策划文档/版本进度/demo版本优化需求.xlsx
+++ b/策划文档/版本进度/demo版本优化需求.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>内容</t>
   </si>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>漂字字体优化，漂字大小调小一半，漂字节奏调整</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>副本界面优化</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -61,19 +57,11 @@
     <t>王晓洋</t>
   </si>
   <si>
-    <t>现在副本界面有点不匹配游戏品质</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ui素材颜色调优</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>血条，护甲颜色不太适合，不具备辨识度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡cd UI出图</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -122,6 +110,30 @@
   </si>
   <si>
     <t>按钮点击效果修改为每次新的点击都会立即替代前次点击，而不是等到第二次点击完成再开始下次点击效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片在战斗主UI里面是dang_cd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡增加cd显示    格挡cd UI出图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晓洋  廖国标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>漂字图片在</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在副本界面有点不匹配游戏品质，需要替换后面那只背景图以及按照示意图调整下UI拼接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频尺寸768*567</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,6 +452,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -454,6 +491,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2085975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1809750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="$7~D$1QNL_5M6DXZ0~%EUMT.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10544175" y="1266825"/>
+          <a:ext cx="1628775" cy="1762125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2943226</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1828801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1790701</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2015153</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="K9KW]0T]`UUYA_D1N%S}ACW.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11401426" y="3048001"/>
+          <a:ext cx="7715250" cy="2053252"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -745,7 +863,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -810,15 +928,15 @@
       <c r="O2" s="18"/>
       <c r="P2" s="29"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="51" customHeight="1">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="147" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="10"/>
@@ -834,15 +952,15 @@
       <c r="O3" s="27"/>
       <c r="P3" s="28"/>
     </row>
-    <row r="4" spans="1:16" ht="54.75" customHeight="1">
+    <row r="4" spans="1:16" ht="182.25" customHeight="1">
       <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="18"/>
@@ -859,16 +977,16 @@
       <c r="P4" s="29"/>
     </row>
     <row r="5" spans="1:16" ht="49.5" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="15"/>
+      <c r="B5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="13"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="4"/>
@@ -884,12 +1002,14 @@
     </row>
     <row r="6" spans="1:16" ht="33.75" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -906,13 +1026,13 @@
     </row>
     <row r="7" spans="1:16" ht="138" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="18"/>
@@ -930,7 +1050,7 @@
     </row>
     <row r="8" spans="1:16" ht="82.5" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>5</v>
@@ -952,10 +1072,10 @@
     </row>
     <row r="9" spans="1:16" ht="90.75" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="15"/>
@@ -972,37 +1092,39 @@
       <c r="O9" s="18"/>
       <c r="P9" s="29"/>
     </row>
-    <row r="10" spans="1:16" ht="88.5" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="29"/>
+    <row r="10" spans="1:16" s="38" customFormat="1" ht="88.5" customHeight="1">
+      <c r="A10" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="37"/>
     </row>
     <row r="11" spans="1:16" ht="98.25" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -1020,7 +1142,7 @@
     </row>
     <row r="12" spans="1:16" ht="79.5" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>5</v>
@@ -1042,7 +1164,7 @@
     </row>
     <row r="13" spans="1:16" ht="79.5" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>5</v>
@@ -1445,6 +1567,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/策划文档/版本进度/demo版本优化需求.xlsx
+++ b/策划文档/版本进度/demo版本优化需求.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>内容</t>
   </si>
@@ -31,117 +31,89 @@
   </si>
   <si>
     <t>摇杆手感优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>廖国标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>摇杆延迟调优，方向移动调优，大小放大四分之一</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>伤害漂字优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晓洋  廖国标</t>
+  </si>
+  <si>
+    <t>漂字图片在</t>
   </si>
   <si>
     <t>副本界面优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>王晓洋  廖国标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>现在副本界面有点不匹配游戏品质，需要替换后面那只背景图以及按照示意图调整下UI拼接</t>
+  </si>
+  <si>
+    <t>ui素材颜色调优</t>
   </si>
   <si>
     <t>王晓洋</t>
   </si>
   <si>
-    <t>ui素材颜色调优</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>血条，护甲颜色不太适合，不具备辨识度</t>
   </si>
   <si>
-    <t>血条，护甲颜色不太适合，不具备辨识度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>格挡增加cd显示    格挡cd UI出图</t>
+  </si>
+  <si>
+    <t>图片在战斗主UI里面是dang_cd</t>
   </si>
   <si>
     <t>技能介绍弹出二级界面增加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>技能可选择方案增加按钮增加文字：方案一方案二
 技能下面标示技能名字
 单个技能点击弹出技能二级界面介绍
 技能界面右侧空白底板增加技能装配介绍文案</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>技能界面图标整体下移，不要挡住左上角技能文字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>取消所有的受击转向</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>廖国标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>输出二级界面的介绍视频</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>王晓洋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>视频尺寸768*567</t>
   </si>
   <si>
     <t>强化格挡动作的反馈，增加格挡成功震屏（怪物格挡成功也会震屏）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>强化反馈弹反的动作，增加专门的弹反动作源文件
 格挡成功会产生屏幕震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>摄像机跟随速度调整，现在快速移动感觉屏幕跟随过快</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>按钮点击效果修改为每次新的点击都会立即替代前次点击，而不是等到第二次点击完成再开始下次点击效果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片在战斗主UI里面是dang_cd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡增加cd显示    格挡cd UI出图</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王晓洋  廖国标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>漂字图片在</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在副本界面有点不匹配游戏品质，需要替换后面那只背景图以及按照示意图调整下UI拼接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频尺寸768*567</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,7 +124,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -161,12 +133,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,8 +303,200 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -342,13 +652,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -454,6 +1006,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -464,26 +1056,84 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -494,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -516,7 +1166,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -554,15 +1204,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11401426" y="3048001"/>
-          <a:ext cx="7715250" cy="2053252"/>
+          <a:off x="11401425" y="3048000"/>
+          <a:ext cx="7715250" cy="2052955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -853,17 +1503,18 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -878,7 +1529,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="51" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="51" customHeight="1" spans="1:16">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -904,87 +1555,87 @@
       <c r="O1" s="25"/>
       <c r="P1" s="26"/>
     </row>
-    <row r="2" spans="1:16" ht="45" customHeight="1">
-      <c r="A2" s="20" t="s">
+    <row r="2" s="31" customFormat="1" ht="45" customHeight="1" spans="1:16">
+      <c r="A2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="29"/>
-    </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="147" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="49"/>
+    </row>
+    <row r="3" s="32" customFormat="1" ht="147" customHeight="1" spans="1:16">
+      <c r="A3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>27</v>
+      <c r="D3" s="37"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="51"/>
+    </row>
+    <row r="4" s="31" customFormat="1" ht="182.25" customHeight="1" spans="1:16">
+      <c r="A4" s="41" t="s">
+        <v>10</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="28"/>
-    </row>
-    <row r="4" spans="1:16" ht="182.25" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="B4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="29"/>
-    </row>
-    <row r="5" spans="1:16" ht="49.5" customHeight="1">
-      <c r="A5" s="31" t="s">
+      <c r="C4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>10</v>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="49"/>
+    </row>
+    <row r="5" ht="49.5" customHeight="1" spans="1:16">
+      <c r="A5" s="43" t="s">
+        <v>12</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>12</v>
+      <c r="B5" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="19"/>
@@ -1000,39 +1651,39 @@
       <c r="O5" s="18"/>
       <c r="P5" s="29"/>
     </row>
-    <row r="6" spans="1:16" ht="33.75" customHeight="1">
-      <c r="A6" s="20" t="s">
-        <v>25</v>
+    <row r="6" s="31" customFormat="1" ht="33.75" customHeight="1" spans="1:16">
+      <c r="A6" s="34" t="s">
+        <v>15</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>26</v>
+      <c r="B6" s="35" t="s">
+        <v>8</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>24</v>
+      <c r="C6" s="36" t="s">
+        <v>16</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="29"/>
-    </row>
-    <row r="7" spans="1:16" ht="138" customHeight="1">
+      <c r="D6" s="36"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="49"/>
+    </row>
+    <row r="7" ht="138" customHeight="1" spans="1:16">
       <c r="A7" s="20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="18"/>
@@ -1048,123 +1699,123 @@
       <c r="O7" s="18"/>
       <c r="P7" s="29"/>
     </row>
-    <row r="8" spans="1:16" ht="82.5" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>15</v>
+    <row r="8" s="31" customFormat="1" ht="82.5" customHeight="1" spans="1:16">
+      <c r="A8" s="41" t="s">
+        <v>19</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="29"/>
-    </row>
-    <row r="9" spans="1:16" ht="90.75" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="29"/>
-    </row>
-    <row r="10" spans="1:16" s="38" customFormat="1" ht="88.5" customHeight="1">
-      <c r="A10" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="37"/>
-    </row>
-    <row r="11" spans="1:16" ht="98.25" customHeight="1">
-      <c r="A11" s="11" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="49"/>
+    </row>
+    <row r="9" s="31" customFormat="1" ht="90.75" customHeight="1" spans="1:16">
+      <c r="A9" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>9</v>
+      <c r="B9" s="35" t="s">
+        <v>5</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="49"/>
+    </row>
+    <row r="10" s="33" customFormat="1" ht="88.5" customHeight="1" spans="1:16">
+      <c r="A10" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="29"/>
-    </row>
-    <row r="12" spans="1:16" ht="79.5" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="B10" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="53"/>
+    </row>
+    <row r="11" s="31" customFormat="1" ht="98.25" customHeight="1" spans="1:16">
+      <c r="A11" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="49"/>
+    </row>
+    <row r="12" s="31" customFormat="1" ht="79.5" customHeight="1" spans="1:16">
+      <c r="A12" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="29"/>
-    </row>
-    <row r="13" spans="1:16" ht="79.5" customHeight="1">
+      <c r="C12" s="36"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="49"/>
+    </row>
+    <row r="13" ht="79.5" customHeight="1" spans="1:16">
       <c r="A13" s="11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>5</v>
@@ -1184,7 +1835,7 @@
       <c r="O13" s="18"/>
       <c r="P13" s="29"/>
     </row>
-    <row r="14" spans="1:16" ht="118.5" customHeight="1">
+    <row r="14" ht="118.5" customHeight="1" spans="1:16">
       <c r="A14" s="11"/>
       <c r="B14" s="9"/>
       <c r="C14" s="12"/>
@@ -1202,7 +1853,7 @@
       <c r="O14" s="18"/>
       <c r="P14" s="29"/>
     </row>
-    <row r="15" spans="1:16" ht="72" customHeight="1">
+    <row r="15" ht="72" customHeight="1" spans="1:16">
       <c r="A15" s="11"/>
       <c r="B15" s="9"/>
       <c r="C15" s="12"/>
@@ -1220,7 +1871,7 @@
       <c r="O15" s="18"/>
       <c r="P15" s="29"/>
     </row>
-    <row r="16" spans="1:16" ht="80.25" customHeight="1">
+    <row r="16" ht="80.25" customHeight="1" spans="1:16">
       <c r="A16" s="11"/>
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
@@ -1238,7 +1889,7 @@
       <c r="O16" s="18"/>
       <c r="P16" s="29"/>
     </row>
-    <row r="17" spans="1:16" ht="110.25" customHeight="1">
+    <row r="17" ht="110.25" customHeight="1" spans="1:16">
       <c r="A17" s="11"/>
       <c r="B17" s="9"/>
       <c r="C17" s="12"/>
@@ -1256,7 +1907,7 @@
       <c r="O17" s="18"/>
       <c r="P17" s="29"/>
     </row>
-    <row r="18" spans="1:16" ht="30.75" customHeight="1">
+    <row r="18" ht="30.75" customHeight="1" spans="1:16">
       <c r="A18" s="20"/>
       <c r="B18" s="19"/>
       <c r="D18" s="18"/>
@@ -1273,7 +1924,7 @@
       <c r="O18" s="18"/>
       <c r="P18" s="29"/>
     </row>
-    <row r="19" spans="1:16" ht="27" customHeight="1">
+    <row r="19" ht="27" customHeight="1" spans="1:16">
       <c r="A19" s="20"/>
       <c r="B19" s="19"/>
       <c r="D19" s="18"/>
@@ -1290,7 +1941,7 @@
       <c r="O19" s="18"/>
       <c r="P19" s="29"/>
     </row>
-    <row r="20" spans="1:16" ht="28.5" customHeight="1">
+    <row r="20" ht="28.5" customHeight="1" spans="1:16">
       <c r="A20" s="20"/>
       <c r="B20" s="19"/>
       <c r="D20" s="18"/>
@@ -1307,7 +1958,7 @@
       <c r="O20" s="18"/>
       <c r="P20" s="29"/>
     </row>
-    <row r="21" spans="1:16" ht="33.75" customHeight="1">
+    <row r="21" ht="33.75" customHeight="1" spans="1:16">
       <c r="A21" s="20"/>
       <c r="B21" s="19"/>
       <c r="D21" s="18"/>
@@ -1324,7 +1975,7 @@
       <c r="O21" s="18"/>
       <c r="P21" s="29"/>
     </row>
-    <row r="22" spans="1:16" ht="30.75" customHeight="1">
+    <row r="22" ht="30.75" customHeight="1" spans="1:16">
       <c r="A22" s="20"/>
       <c r="B22" s="19"/>
       <c r="D22" s="18"/>
@@ -1341,7 +1992,7 @@
       <c r="O22" s="18"/>
       <c r="P22" s="29"/>
     </row>
-    <row r="23" spans="1:16" ht="30" customHeight="1">
+    <row r="23" ht="30" customHeight="1" spans="1:16">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="D23" s="18"/>
@@ -1358,7 +2009,7 @@
       <c r="O23" s="18"/>
       <c r="P23" s="29"/>
     </row>
-    <row r="24" spans="1:16" ht="30" customHeight="1">
+    <row r="24" ht="30" customHeight="1" spans="1:16">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="D24" s="18"/>
@@ -1375,7 +2026,7 @@
       <c r="O24" s="18"/>
       <c r="P24" s="29"/>
     </row>
-    <row r="25" spans="1:16" ht="25.5" customHeight="1">
+    <row r="25" ht="25.5" customHeight="1" spans="1:16">
       <c r="A25" s="20"/>
       <c r="B25" s="19"/>
       <c r="D25" s="18"/>
@@ -1392,7 +2043,7 @@
       <c r="O25" s="18"/>
       <c r="P25" s="29"/>
     </row>
-    <row r="26" spans="1:16" ht="27" customHeight="1">
+    <row r="26" ht="27" customHeight="1" spans="1:16">
       <c r="A26" s="20"/>
       <c r="B26" s="19"/>
       <c r="D26" s="18"/>
@@ -1409,7 +2060,7 @@
       <c r="O26" s="18"/>
       <c r="P26" s="29"/>
     </row>
-    <row r="27" spans="1:16" ht="26.25" customHeight="1">
+    <row r="27" ht="26.25" customHeight="1" spans="1:16">
       <c r="A27" s="20"/>
       <c r="B27" s="18"/>
       <c r="D27" s="18"/>
@@ -1545,7 +2196,7 @@
       <c r="O34" s="18"/>
       <c r="P34" s="29"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" ht="18.75" spans="1:16">
       <c r="A35" s="22"/>
       <c r="B35" s="23"/>
       <c r="C35" s="24"/>
@@ -1564,15 +2215,16 @@
       <c r="P35" s="30"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1591,7 +2243,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="51" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="51" customHeight="1" spans="1:16">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1609,7 +2261,7 @@
       <c r="O1" s="25"/>
       <c r="P1" s="26"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="108" customHeight="1">
+    <row r="2" s="2" customFormat="1" ht="108" customHeight="1" spans="1:16">
       <c r="A2" s="11"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1627,7 +2279,7 @@
       <c r="O2" s="27"/>
       <c r="P2" s="28"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="51" customHeight="1">
+    <row r="3" s="2" customFormat="1" ht="51" customHeight="1" spans="1:16">
       <c r="A3" s="11"/>
       <c r="B3" s="9"/>
       <c r="C3" s="12"/>
@@ -1645,7 +2297,7 @@
       <c r="O3" s="18"/>
       <c r="P3" s="29"/>
     </row>
-    <row r="4" spans="1:16" ht="51" customHeight="1">
+    <row r="4" ht="51" customHeight="1" spans="1:16">
       <c r="A4" s="11"/>
       <c r="B4" s="9"/>
       <c r="C4" s="12"/>
@@ -1663,7 +2315,7 @@
       <c r="O4" s="18"/>
       <c r="P4" s="29"/>
     </row>
-    <row r="5" spans="1:16" ht="45" customHeight="1">
+    <row r="5" ht="45" customHeight="1" spans="1:16">
       <c r="A5" s="20"/>
       <c r="B5" s="9"/>
       <c r="C5" s="12"/>
@@ -1681,7 +2333,7 @@
       <c r="O5" s="18"/>
       <c r="P5" s="29"/>
     </row>
-    <row r="6" spans="1:16" ht="93" customHeight="1">
+    <row r="6" ht="93" customHeight="1" spans="1:16">
       <c r="A6" s="16"/>
       <c r="B6" s="9"/>
       <c r="C6" s="12"/>
@@ -1699,7 +2351,7 @@
       <c r="O6" s="18"/>
       <c r="P6" s="29"/>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" ht="51" customHeight="1">
+    <row r="7" s="2" customFormat="1" ht="51" customHeight="1" spans="1:16">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1717,7 +2369,7 @@
       <c r="O7" s="27"/>
       <c r="P7" s="28"/>
     </row>
-    <row r="8" spans="1:16" ht="54.75" customHeight="1">
+    <row r="8" ht="54.75" customHeight="1" spans="1:16">
       <c r="A8" s="11"/>
       <c r="B8" s="9"/>
       <c r="C8" s="12"/>
@@ -1735,7 +2387,7 @@
       <c r="O8" s="18"/>
       <c r="P8" s="29"/>
     </row>
-    <row r="9" spans="1:16" ht="49.5" customHeight="1">
+    <row r="9" ht="49.5" customHeight="1" spans="1:16">
       <c r="A9" s="11"/>
       <c r="B9" s="9"/>
       <c r="C9" s="12"/>
@@ -1753,7 +2405,7 @@
       <c r="O9" s="18"/>
       <c r="P9" s="29"/>
     </row>
-    <row r="10" spans="1:16" ht="33.75" customHeight="1">
+    <row r="10" ht="33.75" customHeight="1" spans="1:16">
       <c r="A10" s="20"/>
       <c r="B10" s="9"/>
       <c r="C10" s="12"/>
@@ -1771,7 +2423,7 @@
       <c r="O10" s="18"/>
       <c r="P10" s="29"/>
     </row>
-    <row r="11" spans="1:16" ht="43.5" customHeight="1">
+    <row r="11" ht="43.5" customHeight="1" spans="1:16">
       <c r="A11" s="20"/>
       <c r="B11" s="9"/>
       <c r="C11" s="12"/>
@@ -1789,7 +2441,7 @@
       <c r="O11" s="18"/>
       <c r="P11" s="29"/>
     </row>
-    <row r="12" spans="1:16" ht="82.5" customHeight="1">
+    <row r="12" ht="82.5" customHeight="1" spans="1:16">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1807,7 +2459,7 @@
       <c r="O12" s="18"/>
       <c r="P12" s="29"/>
     </row>
-    <row r="13" spans="1:16" ht="82.5" customHeight="1">
+    <row r="13" ht="82.5" customHeight="1" spans="1:16">
       <c r="A13" s="11"/>
       <c r="B13" s="9"/>
       <c r="C13" s="12"/>
@@ -1825,7 +2477,7 @@
       <c r="O13" s="18"/>
       <c r="P13" s="29"/>
     </row>
-    <row r="14" spans="1:16" ht="90.75" customHeight="1">
+    <row r="14" ht="90.75" customHeight="1" spans="1:16">
       <c r="A14" s="11"/>
       <c r="B14" s="9"/>
       <c r="C14" s="12"/>
@@ -1843,7 +2495,7 @@
       <c r="O14" s="18"/>
       <c r="P14" s="29"/>
     </row>
-    <row r="15" spans="1:16" ht="88.5" customHeight="1">
+    <row r="15" ht="88.5" customHeight="1" spans="1:16">
       <c r="A15" s="11"/>
       <c r="B15" s="9"/>
       <c r="C15" s="12"/>
@@ -1861,7 +2513,7 @@
       <c r="O15" s="18"/>
       <c r="P15" s="29"/>
     </row>
-    <row r="16" spans="1:16" ht="98.25" customHeight="1">
+    <row r="16" ht="98.25" customHeight="1" spans="1:16">
       <c r="A16" s="11"/>
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
@@ -1879,7 +2531,7 @@
       <c r="O16" s="18"/>
       <c r="P16" s="29"/>
     </row>
-    <row r="17" spans="1:16" ht="79.5" customHeight="1">
+    <row r="17" ht="79.5" customHeight="1" spans="1:16">
       <c r="A17" s="11"/>
       <c r="B17" s="9"/>
       <c r="C17" s="12"/>
@@ -1897,7 +2549,7 @@
       <c r="O17" s="18"/>
       <c r="P17" s="29"/>
     </row>
-    <row r="18" spans="1:16" ht="118.5" customHeight="1">
+    <row r="18" ht="118.5" customHeight="1" spans="1:16">
       <c r="A18" s="11"/>
       <c r="B18" s="9"/>
       <c r="C18" s="12"/>
@@ -1915,7 +2567,7 @@
       <c r="O18" s="18"/>
       <c r="P18" s="29"/>
     </row>
-    <row r="19" spans="1:16" ht="72" customHeight="1">
+    <row r="19" ht="72" customHeight="1" spans="1:16">
       <c r="A19" s="11"/>
       <c r="B19" s="9"/>
       <c r="C19" s="12"/>
@@ -1933,7 +2585,7 @@
       <c r="O19" s="18"/>
       <c r="P19" s="29"/>
     </row>
-    <row r="20" spans="1:16" ht="80.25" customHeight="1">
+    <row r="20" ht="80.25" customHeight="1" spans="1:16">
       <c r="A20" s="11"/>
       <c r="B20" s="9"/>
       <c r="C20" s="12"/>
@@ -1951,7 +2603,7 @@
       <c r="O20" s="18"/>
       <c r="P20" s="29"/>
     </row>
-    <row r="21" spans="1:16" ht="110.25" customHeight="1">
+    <row r="21" ht="110.25" customHeight="1" spans="1:16">
       <c r="A21" s="11"/>
       <c r="B21" s="9"/>
       <c r="C21" s="12"/>
@@ -1969,7 +2621,7 @@
       <c r="O21" s="18"/>
       <c r="P21" s="29"/>
     </row>
-    <row r="22" spans="1:16" ht="30.75" customHeight="1">
+    <row r="22" ht="30.75" customHeight="1" spans="1:16">
       <c r="A22" s="20"/>
       <c r="B22" s="19"/>
       <c r="D22" s="18"/>
@@ -1986,7 +2638,7 @@
       <c r="O22" s="18"/>
       <c r="P22" s="29"/>
     </row>
-    <row r="23" spans="1:16" ht="27" customHeight="1">
+    <row r="23" ht="27" customHeight="1" spans="1:16">
       <c r="A23" s="20"/>
       <c r="B23" s="19"/>
       <c r="D23" s="18"/>
@@ -2003,7 +2655,7 @@
       <c r="O23" s="18"/>
       <c r="P23" s="29"/>
     </row>
-    <row r="24" spans="1:16" ht="28.5" customHeight="1">
+    <row r="24" ht="28.5" customHeight="1" spans="1:16">
       <c r="A24" s="20"/>
       <c r="B24" s="19"/>
       <c r="D24" s="18"/>
@@ -2020,7 +2672,7 @@
       <c r="O24" s="18"/>
       <c r="P24" s="29"/>
     </row>
-    <row r="25" spans="1:16" ht="33.75" customHeight="1">
+    <row r="25" ht="33.75" customHeight="1" spans="1:16">
       <c r="A25" s="20"/>
       <c r="B25" s="19"/>
       <c r="D25" s="18"/>
@@ -2037,7 +2689,7 @@
       <c r="O25" s="18"/>
       <c r="P25" s="29"/>
     </row>
-    <row r="26" spans="1:16" ht="30.75" customHeight="1">
+    <row r="26" ht="30.75" customHeight="1" spans="1:16">
       <c r="A26" s="20"/>
       <c r="B26" s="19"/>
       <c r="D26" s="18"/>
@@ -2054,7 +2706,7 @@
       <c r="O26" s="18"/>
       <c r="P26" s="29"/>
     </row>
-    <row r="27" spans="1:16" ht="30" customHeight="1">
+    <row r="27" ht="30" customHeight="1" spans="1:16">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="D27" s="18"/>
@@ -2071,7 +2723,7 @@
       <c r="O27" s="18"/>
       <c r="P27" s="29"/>
     </row>
-    <row r="28" spans="1:16" ht="30" customHeight="1">
+    <row r="28" ht="30" customHeight="1" spans="1:16">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="D28" s="18"/>
@@ -2088,7 +2740,7 @@
       <c r="O28" s="18"/>
       <c r="P28" s="29"/>
     </row>
-    <row r="29" spans="1:16" ht="25.5" customHeight="1">
+    <row r="29" ht="25.5" customHeight="1" spans="1:16">
       <c r="A29" s="20"/>
       <c r="B29" s="19"/>
       <c r="D29" s="18"/>
@@ -2105,7 +2757,7 @@
       <c r="O29" s="18"/>
       <c r="P29" s="29"/>
     </row>
-    <row r="30" spans="1:16" ht="27" customHeight="1">
+    <row r="30" ht="27" customHeight="1" spans="1:16">
       <c r="A30" s="20"/>
       <c r="B30" s="19"/>
       <c r="D30" s="18"/>
@@ -2122,7 +2774,7 @@
       <c r="O30" s="18"/>
       <c r="P30" s="29"/>
     </row>
-    <row r="31" spans="1:16" ht="26.25" customHeight="1">
+    <row r="31" ht="26.25" customHeight="1" spans="1:16">
       <c r="A31" s="20"/>
       <c r="B31" s="18"/>
       <c r="D31" s="18"/>
@@ -2258,7 +2910,7 @@
       <c r="O38" s="18"/>
       <c r="P38" s="29"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" ht="18.75" spans="1:16">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="24"/>
@@ -2277,13 +2929,14 @@
       <c r="P39" s="30"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2302,7 +2955,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="51" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="51" customHeight="1" spans="1:16">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2320,7 +2973,7 @@
       <c r="O1" s="25"/>
       <c r="P1" s="26"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="108" customHeight="1">
+    <row r="2" s="2" customFormat="1" ht="108" customHeight="1" spans="1:16">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2338,7 +2991,7 @@
       <c r="O2" s="27"/>
       <c r="P2" s="28"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="51" customHeight="1">
+    <row r="3" s="2" customFormat="1" ht="51" customHeight="1" spans="1:16">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="4"/>
@@ -2356,7 +3009,7 @@
       <c r="O3" s="18"/>
       <c r="P3" s="29"/>
     </row>
-    <row r="4" spans="1:16" ht="51" customHeight="1">
+    <row r="4" ht="51" customHeight="1" spans="1:16">
       <c r="A4" s="16"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -2374,7 +3027,7 @@
       <c r="O4" s="18"/>
       <c r="P4" s="29"/>
     </row>
-    <row r="5" spans="1:16" ht="45" customHeight="1">
+    <row r="5" ht="45" customHeight="1" spans="1:16">
       <c r="A5" s="11"/>
       <c r="B5" s="9"/>
       <c r="C5" s="12"/>
@@ -2392,7 +3045,7 @@
       <c r="O5" s="18"/>
       <c r="P5" s="29"/>
     </row>
-    <row r="6" spans="1:16" ht="93" customHeight="1">
+    <row r="6" ht="93" customHeight="1" spans="1:16">
       <c r="A6" s="11"/>
       <c r="B6" s="9"/>
       <c r="C6" s="12"/>
@@ -2410,7 +3063,7 @@
       <c r="O6" s="18"/>
       <c r="P6" s="29"/>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" ht="51" customHeight="1">
+    <row r="7" s="2" customFormat="1" ht="51" customHeight="1" spans="1:16">
       <c r="A7" s="11"/>
       <c r="B7" s="9"/>
       <c r="C7" s="12"/>
@@ -2428,7 +3081,7 @@
       <c r="O7" s="18"/>
       <c r="P7" s="29"/>
     </row>
-    <row r="8" spans="1:16" ht="54.75" customHeight="1">
+    <row r="8" ht="54.75" customHeight="1" spans="1:16">
       <c r="A8" s="11"/>
       <c r="B8" s="9"/>
       <c r="C8" s="12"/>
@@ -2446,7 +3099,7 @@
       <c r="O8" s="18"/>
       <c r="P8" s="29"/>
     </row>
-    <row r="9" spans="1:16" ht="33.75" customHeight="1">
+    <row r="9" ht="33.75" customHeight="1" spans="1:16">
       <c r="A9" s="20"/>
       <c r="B9" s="9"/>
       <c r="C9" s="12"/>
@@ -2464,7 +3117,7 @@
       <c r="O9" s="18"/>
       <c r="P9" s="29"/>
     </row>
-    <row r="10" spans="1:16" ht="33.75" customHeight="1">
+    <row r="10" ht="33.75" customHeight="1" spans="1:16">
       <c r="A10" s="11"/>
       <c r="B10" s="9"/>
       <c r="C10" s="12"/>
@@ -2482,7 +3135,7 @@
       <c r="O10" s="18"/>
       <c r="P10" s="29"/>
     </row>
-    <row r="11" spans="1:16" ht="43.5" customHeight="1">
+    <row r="11" ht="43.5" customHeight="1" spans="1:16">
       <c r="A11" s="20"/>
       <c r="B11" s="9"/>
       <c r="C11" s="12"/>
@@ -2500,7 +3153,7 @@
       <c r="O11" s="18"/>
       <c r="P11" s="29"/>
     </row>
-    <row r="12" spans="1:16" ht="82.5" customHeight="1">
+    <row r="12" ht="82.5" customHeight="1" spans="1:16">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2518,7 +3171,7 @@
       <c r="O12" s="18"/>
       <c r="P12" s="29"/>
     </row>
-    <row r="13" spans="1:16" ht="82.5" customHeight="1">
+    <row r="13" ht="82.5" customHeight="1" spans="1:16">
       <c r="A13" s="11"/>
       <c r="B13" s="9"/>
       <c r="C13" s="12"/>
@@ -2536,7 +3189,7 @@
       <c r="O13" s="18"/>
       <c r="P13" s="29"/>
     </row>
-    <row r="14" spans="1:16" ht="90.75" customHeight="1">
+    <row r="14" ht="90.75" customHeight="1" spans="1:16">
       <c r="A14" s="11"/>
       <c r="B14" s="9"/>
       <c r="C14" s="12"/>
@@ -2554,7 +3207,7 @@
       <c r="O14" s="18"/>
       <c r="P14" s="29"/>
     </row>
-    <row r="15" spans="1:16" ht="88.5" customHeight="1">
+    <row r="15" ht="88.5" customHeight="1" spans="1:16">
       <c r="A15" s="11"/>
       <c r="B15" s="9"/>
       <c r="C15" s="12"/>
@@ -2572,7 +3225,7 @@
       <c r="O15" s="18"/>
       <c r="P15" s="29"/>
     </row>
-    <row r="16" spans="1:16" ht="98.25" customHeight="1">
+    <row r="16" ht="98.25" customHeight="1" spans="1:16">
       <c r="A16" s="11"/>
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
@@ -2590,7 +3243,7 @@
       <c r="O16" s="18"/>
       <c r="P16" s="29"/>
     </row>
-    <row r="17" spans="1:16" ht="79.5" customHeight="1">
+    <row r="17" ht="79.5" customHeight="1" spans="1:16">
       <c r="A17" s="11"/>
       <c r="B17" s="9"/>
       <c r="C17" s="12"/>
@@ -2608,7 +3261,7 @@
       <c r="O17" s="18"/>
       <c r="P17" s="29"/>
     </row>
-    <row r="18" spans="1:16" ht="118.5" customHeight="1">
+    <row r="18" ht="118.5" customHeight="1" spans="1:16">
       <c r="A18" s="11"/>
       <c r="B18" s="9"/>
       <c r="C18" s="12"/>
@@ -2626,7 +3279,7 @@
       <c r="O18" s="18"/>
       <c r="P18" s="29"/>
     </row>
-    <row r="19" spans="1:16" ht="72" customHeight="1">
+    <row r="19" ht="72" customHeight="1" spans="1:16">
       <c r="A19" s="11"/>
       <c r="B19" s="9"/>
       <c r="C19" s="12"/>
@@ -2644,7 +3297,7 @@
       <c r="O19" s="18"/>
       <c r="P19" s="29"/>
     </row>
-    <row r="20" spans="1:16" ht="80.25" customHeight="1">
+    <row r="20" ht="80.25" customHeight="1" spans="1:16">
       <c r="A20" s="11"/>
       <c r="B20" s="9"/>
       <c r="C20" s="12"/>
@@ -2662,7 +3315,7 @@
       <c r="O20" s="18"/>
       <c r="P20" s="29"/>
     </row>
-    <row r="21" spans="1:16" ht="110.25" customHeight="1">
+    <row r="21" ht="110.25" customHeight="1" spans="1:16">
       <c r="A21" s="11"/>
       <c r="B21" s="9"/>
       <c r="C21" s="12"/>
@@ -2680,7 +3333,7 @@
       <c r="O21" s="18"/>
       <c r="P21" s="29"/>
     </row>
-    <row r="22" spans="1:16" ht="30.75" customHeight="1">
+    <row r="22" ht="30.75" customHeight="1" spans="1:16">
       <c r="A22" s="20"/>
       <c r="B22" s="19"/>
       <c r="D22" s="18"/>
@@ -2697,7 +3350,7 @@
       <c r="O22" s="18"/>
       <c r="P22" s="29"/>
     </row>
-    <row r="23" spans="1:16" ht="27" customHeight="1">
+    <row r="23" ht="27" customHeight="1" spans="1:16">
       <c r="A23" s="20"/>
       <c r="B23" s="19"/>
       <c r="D23" s="18"/>
@@ -2714,7 +3367,7 @@
       <c r="O23" s="18"/>
       <c r="P23" s="29"/>
     </row>
-    <row r="24" spans="1:16" ht="28.5" customHeight="1">
+    <row r="24" ht="28.5" customHeight="1" spans="1:16">
       <c r="A24" s="20"/>
       <c r="B24" s="19"/>
       <c r="D24" s="18"/>
@@ -2731,7 +3384,7 @@
       <c r="O24" s="18"/>
       <c r="P24" s="29"/>
     </row>
-    <row r="25" spans="1:16" ht="33.75" customHeight="1">
+    <row r="25" ht="33.75" customHeight="1" spans="1:16">
       <c r="A25" s="20"/>
       <c r="B25" s="19"/>
       <c r="D25" s="18"/>
@@ -2748,7 +3401,7 @@
       <c r="O25" s="18"/>
       <c r="P25" s="29"/>
     </row>
-    <row r="26" spans="1:16" ht="30.75" customHeight="1">
+    <row r="26" ht="30.75" customHeight="1" spans="1:16">
       <c r="A26" s="20"/>
       <c r="B26" s="19"/>
       <c r="D26" s="18"/>
@@ -2765,7 +3418,7 @@
       <c r="O26" s="18"/>
       <c r="P26" s="29"/>
     </row>
-    <row r="27" spans="1:16" ht="30" customHeight="1">
+    <row r="27" ht="30" customHeight="1" spans="1:16">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="D27" s="18"/>
@@ -2782,7 +3435,7 @@
       <c r="O27" s="18"/>
       <c r="P27" s="29"/>
     </row>
-    <row r="28" spans="1:16" ht="30" customHeight="1">
+    <row r="28" ht="30" customHeight="1" spans="1:16">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="D28" s="18"/>
@@ -2799,7 +3452,7 @@
       <c r="O28" s="18"/>
       <c r="P28" s="29"/>
     </row>
-    <row r="29" spans="1:16" ht="25.5" customHeight="1">
+    <row r="29" ht="25.5" customHeight="1" spans="1:16">
       <c r="A29" s="20"/>
       <c r="B29" s="19"/>
       <c r="D29" s="18"/>
@@ -2816,7 +3469,7 @@
       <c r="O29" s="18"/>
       <c r="P29" s="29"/>
     </row>
-    <row r="30" spans="1:16" ht="27" customHeight="1">
+    <row r="30" ht="27" customHeight="1" spans="1:16">
       <c r="A30" s="20"/>
       <c r="B30" s="19"/>
       <c r="D30" s="18"/>
@@ -2833,7 +3486,7 @@
       <c r="O30" s="18"/>
       <c r="P30" s="29"/>
     </row>
-    <row r="31" spans="1:16" ht="26.25" customHeight="1">
+    <row r="31" ht="26.25" customHeight="1" spans="1:16">
       <c r="A31" s="20"/>
       <c r="B31" s="18"/>
       <c r="D31" s="18"/>
@@ -2969,7 +3622,7 @@
       <c r="O38" s="18"/>
       <c r="P38" s="29"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" ht="18.75" spans="1:16">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="24"/>
@@ -2988,7 +3641,7 @@
       <c r="P39" s="30"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/策划文档/版本进度/demo版本优化需求.xlsx
+++ b/策划文档/版本进度/demo版本优化需求.xlsx
@@ -109,9 +109,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -133,6 +133,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -140,9 +156,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,60 +215,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,8 +231,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -245,9 +255,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,17 +270,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,7 +284,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,13 +317,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,43 +377,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,61 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,31 +437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,6 +462,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,6 +647,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -692,15 +715,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -712,17 +726,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,162 +744,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1512,9 +1506,9 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1675,29 +1669,29 @@
       <c r="O6" s="38"/>
       <c r="P6" s="49"/>
     </row>
-    <row r="7" ht="138" customHeight="1" spans="1:16">
-      <c r="A7" s="20" t="s">
+    <row r="7" s="31" customFormat="1" ht="138" customHeight="1" spans="1:16">
+      <c r="A7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="29"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="49"/>
     </row>
     <row r="8" s="31" customFormat="1" ht="82.5" customHeight="1" spans="1:16">
       <c r="A8" s="41" t="s">
@@ -1813,27 +1807,27 @@
       <c r="O12" s="38"/>
       <c r="P12" s="49"/>
     </row>
-    <row r="13" ht="79.5" customHeight="1" spans="1:16">
-      <c r="A13" s="11" t="s">
+    <row r="13" s="31" customFormat="1" ht="79.5" customHeight="1" spans="1:16">
+      <c r="A13" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="29"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="49"/>
     </row>
     <row r="14" ht="118.5" customHeight="1" spans="1:16">
       <c r="A14" s="11"/>
